--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426097.476523632</v>
+        <v>3419080.461631922</v>
       </c>
     </row>
     <row r="7">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.7861605590466</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.340253406636493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2725262699916</v>
+        <v>12.73234413968998</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.8527136345497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.1446350464977</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.004412707233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.5179590530844</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598878</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586905</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.55095684449111</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385024</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.6907158639456</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>154.8591015590589</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>126.9772637226529</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>23.30984749387354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>91.09720239620675</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>215.0546805228906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>29.0623924795256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>208.2960536976103</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.0652094626294</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>25.59039506740635</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.24018360678578</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>140.5678108961694</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>3.347695664763246</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.063478780785</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2532.718625807064</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2532.718625807064</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2278.956840445156</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y2" t="n">
-        <v>2305.663318844906</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>500.8207968750362</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E4" t="n">
-        <v>500.8207968750362</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="F4" t="n">
-        <v>500.8207968750362</v>
+        <v>203.1328463981708</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>743.8406828867444</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>182.2302673832261</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>182.2302673832261</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.420136195576</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1294.457619255165</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.457619255165</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259698</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259698</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641981</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>559.192801278528</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>409.0761618661923</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>261.1630682837991</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858888</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>687.1684217372513</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>687.1684217372513</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>687.1684217372513</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>687.1684217372513</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>432.4839335313644</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>432.4839335313644</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>432.4839335313644</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870658</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870658</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>216.9038434870658</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>216.9038434870658</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.107466654927</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.107466654927</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1132.42297844904</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>843.0058084120794</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870658</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095318</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001782</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281744</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945777</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164474</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.74515569858</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.7980808734437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>981.7980808734437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.7980808734437</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765191</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395585</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415411</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.0375086983739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>484.0375086983739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.4452354807079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
         <v>265.3924131404652</v>
@@ -6612,13 +6612,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352016</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.875830352495</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>986.8862794544777</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y31" t="n">
-        <v>766.0937003109476</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.9798268587604</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="C34" t="n">
-        <v>527.0436439308535</v>
+        <v>423.6006232311494</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>273.4839838188136</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>273.4839838188136</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>273.4839838188136</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>273.4839838188136</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>123.0659753667569</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X34" t="n">
-        <v>1047.141304449391</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y34" t="n">
-        <v>826.3487253058607</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,43 +7177,43 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C40" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="D40" t="n">
         <v>822.1480540508779</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247865</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>822.1480540508779</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.1480540508779</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719069</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229581</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776731</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>234.4116509503167</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.0036839568655</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>110.8568451944437</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>12.38771953956893</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>125.1603796011752</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.2748058582212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.5182706220056</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>10.65497486614655</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24891,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>257.4606058570654</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>17.41360169142689</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.76677071930794</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.82885039686563</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>140.2723743590792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>51.37528941142658</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.5698324276586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.8896567338141</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
         <v>664749.401554105</v>
@@ -26334,28 +26334,28 @@
         <v>664749.4015541048</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541045</v>
       </c>
-      <c r="K2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="M2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007407</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.73165600748</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007482</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092339</v>
+        <v>-122858.5016092335</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053106</v>
+        <v>467109.377605311</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053108</v>
+        <v>467109.3776053105</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248462</v>
+        <v>38710.71621276357</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.752689659</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.752689659</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896594</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567874</v>
+        <v>387447.5334970661</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896588</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155435</v>
+        <v>429069.7374558218</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493802</v>
+        <v>563870.7526896589</v>
       </c>
       <c r="O6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896589</v>
       </c>
       <c r="P6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896588</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>11.62955224992493</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.8976852494171</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.03727598905928</v>
+        <v>154.5774581193609</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.8811280289309</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.6395349742973</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.42954993933617</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>7.361875848788252</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4124110191774</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858127</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831818</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>106.1142351356667</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.307124706796288e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>214.4070918624582</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091978</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.866388531833</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3419080.461631922</v>
+        <v>3424019.724480954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>141.6532280708862</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>162.7861605590466</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.726971031682301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73234413968998</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>207.1446350464977</v>
+        <v>48.28463004918702</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>37.83808333974875</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.97516701831633</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>12.85943393303082</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598878</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586905</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.7882487092398</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>110.6907158639456</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>106.2835578420356</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V22" t="n">
-        <v>126.9772637226529</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>216.4586446023294</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>188.3605304349232</v>
       </c>
       <c r="X31" t="n">
-        <v>208.2960536976103</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.59039506740635</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.24018360678578</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>961.9499065944426</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>603.6842079876922</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>217.8959553894479</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>210.9504546402445</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>197.0270505788354</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>197.0270505788354</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2532.718625807064</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2532.718625807064</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2278.956840445156</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1947.893953101585</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1947.893953101585</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1574.428194840505</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>723.3542659926137</v>
       </c>
       <c r="D4" t="n">
-        <v>350.0227938960811</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="E4" t="n">
-        <v>350.0227938960811</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1328463981708</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>1513.092286283102</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.826587676352</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.826587676352</v>
+        <v>513.7012401950094</v>
       </c>
       <c r="F5" t="n">
-        <v>743.8406828867444</v>
+        <v>102.7153354054018</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837985</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>92.16326802213086</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>92.16326802213086</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>92.16326802213086</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018224</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641981</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>559.192801278528</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661923</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837991</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858888</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>501.5782531723953</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>201.0436053080028</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.107466654927</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.107466654927</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1132.42297844904</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>843.0058084120794</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X13" t="n">
-        <v>615.0162575140621</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.223678370532</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936552</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936552</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936552</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>204.5742205936552</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,31 +5530,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>946.9509829168464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>657.5338128798858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>429.5442619818684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665166</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1280.271174999994</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,10 +6454,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240057</v>
+        <v>1308.653108502425</v>
       </c>
       <c r="X31" t="n">
-        <v>486.1849922839954</v>
+        <v>1080.663557604408</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>423.6006232311494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>273.4839838188136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>123.0659753667569</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,19 +7408,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,28 +7429,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719069</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4116509503167</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>7.630996755032186</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.8568451944437</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>42.63027052550049</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V22" t="n">
-        <v>125.1603796011752</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.088916456059877</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>98.16246790166778</v>
       </c>
       <c r="X31" t="n">
-        <v>17.41360169142689</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>84.82885039686563</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>51.37528941142658</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>66.95975394634853</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="12">
@@ -26319,34 +26319,34 @@
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
         <v>664749.4015541046</v>
@@ -26355,7 +26355,7 @@
         <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159207</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
@@ -26435,22 +26435,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007486</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>467109.377605311</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053105</v>
+        <v>467109.3776053108</v>
       </c>
       <c r="E6" t="n">
-        <v>38710.71621276357</v>
+        <v>39587.84834651211</v>
       </c>
       <c r="F6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="G6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234081</v>
       </c>
       <c r="H6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="I6" t="n">
-        <v>563870.7526896594</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="J6" t="n">
-        <v>387447.5334970661</v>
+        <v>388324.6656308156</v>
       </c>
       <c r="K6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="L6" t="n">
-        <v>563870.7526896588</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="M6" t="n">
-        <v>429069.7374558218</v>
+        <v>429946.8695895718</v>
       </c>
       <c r="N6" t="n">
-        <v>563870.7526896589</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="O6" t="n">
-        <v>563870.7526896589</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="P6" t="n">
-        <v>563870.7526896588</v>
+        <v>564747.8848234082</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>10.27808817397505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>11.62955224992493</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>175.105009150255</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5774581193609</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>206.6395349742973</v>
+        <v>365.499539971608</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.361875848788252</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>125.6900249618415</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858127</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831818</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624582</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>544.836028000783</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>487.1420318003106</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>492.4584513372614</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
